--- a/журналы/test-files/Журнал-1_ВМ_АГПЗ_-_-_ТЕСТ РАБОЧИЙ ФАЙЛ_31.08.2022.xlsx
+++ b/журналы/test-files/Журнал-1_ВМ_АГПЗ_-_-_ТЕСТ РАБОЧИЙ ФАЙЛ_31.08.2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44697F35-CEE2-428E-B2B3-8CFC67B97918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F920D64-4CAB-4998-8D3F-1A386B03DADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t xml:space="preserve"> КОНТРАКТ   </t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>да</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1173,9 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
